--- a/pl_h.xlsx
+++ b/pl_h.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080" tabRatio="621"/>
+    <workbookView windowWidth="24750" windowHeight="11630" tabRatio="621"/>
   </bookViews>
   <sheets>
     <sheet name=" PL " sheetId="20" r:id="rId1"/>
@@ -1100,11 +1100,6 @@
         <row r="4">
           <cell r="G4" t="str">
             <v>CXCI2025012201</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="G5">
-            <v>45679</v>
           </cell>
         </row>
       </sheetData>
@@ -1405,7 +1400,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:J15"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1509,10 +1504,7 @@
       <c r="G6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="17">
-        <f>[1]CXCI2025012201!G5</f>
-        <v>45679</v>
-      </c>
+      <c r="H6" s="17"/>
       <c r="I6" s="12"/>
       <c r="J6" s="27"/>
     </row>
@@ -1526,10 +1518,7 @@
       <c r="G7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="17">
-        <f>H6</f>
-        <v>45679</v>
-      </c>
+      <c r="H7" s="17"/>
       <c r="I7" s="12"/>
       <c r="J7" s="27"/>
     </row>

--- a/pl_h.xlsx
+++ b/pl_h.xlsx
@@ -9,9 +9,6 @@
   <sheets>
     <sheet name=" PL " sheetId="20" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">' PL '!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">' PL '!#REF!</definedName>
@@ -34,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Shibo Chuangxiang Digital Technology (Shenzhen) Co., LTD</t>
   </si>
@@ -79,10 +76,7 @@
     <t>Buyer :</t>
   </si>
   <si>
-    <t xml:space="preserve">UNICAIR(HOLDINGS) LIMITED  </t>
-  </si>
-  <si>
-    <t>ADD:UNIT 802,8/F,CHINA INSURANCE GROUP BUILDING,141 DES VOEUX ROAD CENTRAL HONG KONG</t>
+    <t>ADD:</t>
   </si>
   <si>
     <t>Contact Person: Mr Kamal Baldi</t>
@@ -1085,27 +1079,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val=" PL "/>
-      <sheetName val="CXCI2025012201"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="4">
-          <cell r="G4" t="str">
-            <v>CXCI2025012201</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1400,7 +1373,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B13" sqref="B13:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1473,10 +1446,7 @@
       <c r="G4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="14" t="str">
-        <f>[1]CXCI2025012201!G4</f>
-        <v>CXCI2025012201</v>
-      </c>
+      <c r="H4" s="14"/>
       <c r="I4" s="12"/>
       <c r="J4" s="27"/>
     </row>
@@ -1526,9 +1496,7 @@
       <c r="A8" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>8</v>
-      </c>
+      <c r="B8" s="19"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
       <c r="E8" s="11"/>
@@ -1541,7 +1509,7 @@
     <row r="9" spans="1:10">
       <c r="A9" s="21"/>
       <c r="B9" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -1555,7 +1523,7 @@
     <row r="10" spans="1:10">
       <c r="A10" s="21"/>
       <c r="B10" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -1580,11 +1548,9 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>8</v>
-      </c>
+      <c r="B12" s="19"/>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
       <c r="E12" s="11"/>
@@ -1597,7 +1563,7 @@
     <row r="13" spans="1:10">
       <c r="A13" s="21"/>
       <c r="B13" s="23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>

--- a/pl_h.xlsx
+++ b/pl_h.xlsx
@@ -8,9 +8,6 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-  </externalReferences>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -19,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="35">
+  <fonts count="33">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -105,13 +102,6 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="0"/>
       <color rgb="FF0000FF"/>
       <sz val="11"/>
@@ -259,13 +249,6 @@
       <charset val="134"/>
       <sz val="10"/>
     </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -461,7 +444,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -473,7 +456,9 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -623,21 +608,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -659,154 +629,154 @@
     </border>
   </borders>
   <cellStyleXfs count="50">
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="10" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="11" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="11" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -820,21 +790,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -880,28 +842,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="49">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1026,32 +969,6 @@
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val=" PL "/>
-      <sheetName val="CXCI2025012201"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="4">
-          <cell r="G4" t="str">
-            <v>CXCI2025012201</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="G5">
-            <v>45679</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1345,200 +1262,175 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD13"/>
+      <selection activeCell="A2" sqref="A2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" ht="29.25" customFormat="1" customHeight="1" s="1">
-      <c r="A1" s="29" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>Shibo Chuangxiang Digital Technology (Shenzhen) Co., LTD</t>
         </is>
       </c>
-      <c r="B1" s="30" t="n"/>
-      <c r="C1" s="30" t="n"/>
-      <c r="D1" s="30" t="n"/>
-      <c r="E1" s="30" t="n"/>
-      <c r="F1" s="30" t="n"/>
-      <c r="G1" s="30" t="n"/>
-      <c r="H1" s="30" t="n"/>
-      <c r="I1" s="30" t="n"/>
-      <c r="J1" s="31" t="n"/>
+      <c r="B1" s="5" t="n"/>
+      <c r="C1" s="5" t="n"/>
+      <c r="D1" s="5" t="n"/>
+      <c r="E1" s="5" t="n"/>
+      <c r="F1" s="5" t="n"/>
+      <c r="G1" s="5" t="n"/>
+      <c r="H1" s="5" t="n"/>
+      <c r="I1" s="5" t="n"/>
+      <c r="J1" s="23" t="n"/>
     </row>
     <row r="2" ht="15.25" customFormat="1" customHeight="1" s="2">
-      <c r="A2" s="32" t="inlineStr">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>Room 1501, Shenzhen International Qianhai Yidu Tower, No.99, Gangcheng Street, Nanshan Street, Qianhai Shenzhen-Hong Kong Cooperation Zone, Shenzhen</t>
         </is>
       </c>
-      <c r="B2" s="30" t="n"/>
-      <c r="C2" s="30" t="n"/>
-      <c r="D2" s="30" t="n"/>
-      <c r="E2" s="30" t="n"/>
-      <c r="F2" s="30" t="n"/>
-      <c r="G2" s="30" t="n"/>
-      <c r="H2" s="30" t="n"/>
-      <c r="I2" s="30" t="n"/>
-      <c r="J2" s="31" t="n"/>
+      <c r="B2" s="5" t="n"/>
+      <c r="C2" s="5" t="n"/>
+      <c r="D2" s="5" t="n"/>
+      <c r="E2" s="5" t="n"/>
+      <c r="F2" s="5" t="n"/>
+      <c r="G2" s="5" t="n"/>
+      <c r="H2" s="5" t="n"/>
+      <c r="I2" s="5" t="n"/>
+      <c r="J2" s="23" t="n"/>
     </row>
     <row r="3" ht="34.25" customFormat="1" customHeight="1" s="2">
-      <c r="A3" s="33" t="inlineStr">
+      <c r="A3" s="7" t="inlineStr">
         <is>
           <t>Packing List</t>
         </is>
       </c>
-      <c r="B3" s="30" t="n"/>
-      <c r="C3" s="30" t="n"/>
-      <c r="D3" s="30" t="n"/>
-      <c r="E3" s="30" t="n"/>
-      <c r="F3" s="30" t="n"/>
-      <c r="G3" s="30" t="n"/>
-      <c r="H3" s="30" t="n"/>
-      <c r="I3" s="30" t="n"/>
-      <c r="J3" s="31" t="n"/>
+      <c r="B3" s="5" t="n"/>
+      <c r="C3" s="5" t="n"/>
+      <c r="D3" s="5" t="n"/>
+      <c r="E3" s="5" t="n"/>
+      <c r="F3" s="5" t="n"/>
+      <c r="G3" s="5" t="n"/>
+      <c r="H3" s="5" t="n"/>
+      <c r="I3" s="5" t="n"/>
+      <c r="J3" s="23" t="n"/>
     </row>
     <row r="4" ht="13" customFormat="1" customHeight="1" s="3">
-      <c r="A4" s="10" t="inlineStr">
+      <c r="A4" s="8" t="inlineStr">
         <is>
           <t>Shipper:</t>
         </is>
       </c>
-      <c r="B4" s="11" t="inlineStr">
+      <c r="B4" s="9" t="inlineStr">
         <is>
           <t>Shibo Chuangxiang Digital Technology (Shenzhen) Co., LTD</t>
         </is>
       </c>
-      <c r="C4" s="12" t="n"/>
-      <c r="D4" s="12" t="n"/>
-      <c r="E4" s="13" t="n"/>
-      <c r="G4" s="14" t="inlineStr">
+      <c r="C4" s="10" t="n"/>
+      <c r="D4" s="10" t="n"/>
+      <c r="E4" s="11" t="n"/>
+      <c r="G4" s="12" t="inlineStr">
         <is>
           <t>Invoice No. ：</t>
         </is>
       </c>
-      <c r="H4" s="15">
-        <f>[1]CXCI2025012201!G4</f>
-        <v/>
-      </c>
-      <c r="J4" s="28" t="n"/>
+      <c r="H4" s="13" t="n"/>
+      <c r="J4" s="24" t="n"/>
     </row>
     <row r="5" ht="13" customFormat="1" customHeight="1" s="3">
-      <c r="A5" s="10" t="n"/>
-      <c r="B5" s="16" t="inlineStr">
+      <c r="A5" s="8" t="n"/>
+      <c r="B5" s="14" t="inlineStr">
         <is>
           <t>Room 1501, Shenzhen International Qianhai Yidu Tower, No.99, Gangcheng Street, Nanshan Street, Qianhai Shenzhen-Hong Kong Cooperation Zone, Shenzhen</t>
         </is>
       </c>
-      <c r="D5" s="16" t="n"/>
-      <c r="E5" s="13" t="n"/>
-      <c r="G5" s="14" t="n"/>
-      <c r="H5" s="15" t="n"/>
-      <c r="J5" s="28" t="n"/>
+      <c r="D5" s="14" t="n"/>
+      <c r="E5" s="11" t="n"/>
+      <c r="G5" s="12" t="n"/>
+      <c r="H5" s="13" t="n"/>
+      <c r="J5" s="24" t="n"/>
     </row>
     <row r="6" ht="13" customFormat="1" customHeight="1" s="3">
-      <c r="A6" s="10" t="n"/>
-      <c r="D6" s="16" t="n"/>
-      <c r="E6" s="13" t="n"/>
-      <c r="G6" s="17" t="inlineStr">
+      <c r="A6" s="8" t="n"/>
+      <c r="D6" s="14" t="n"/>
+      <c r="E6" s="11" t="n"/>
+      <c r="G6" s="15" t="inlineStr">
         <is>
           <t>Date:</t>
         </is>
       </c>
-      <c r="H6" s="18">
-        <f>[1]CXCI2025012201!G5</f>
-        <v/>
-      </c>
-      <c r="J6" s="28" t="n"/>
+      <c r="H6" s="16" t="n"/>
+      <c r="J6" s="24" t="n"/>
     </row>
     <row r="7" ht="13" customFormat="1" customHeight="1" s="3">
-      <c r="A7" s="10" t="n"/>
-      <c r="B7" s="11" t="n"/>
-      <c r="E7" s="11" t="n"/>
-      <c r="G7" s="17" t="inlineStr">
+      <c r="A7" s="8" t="n"/>
+      <c r="B7" s="9" t="n"/>
+      <c r="E7" s="9" t="n"/>
+      <c r="G7" s="15" t="inlineStr">
         <is>
           <t>Delivery Date:</t>
         </is>
       </c>
-      <c r="H7" s="18">
-        <f>H6</f>
-        <v/>
-      </c>
-      <c r="J7" s="28" t="n"/>
+      <c r="H7" s="16" t="n"/>
+      <c r="J7" s="24" t="n"/>
     </row>
     <row r="8" ht="13" customFormat="1" customHeight="1" s="3">
-      <c r="A8" s="19" t="inlineStr">
+      <c r="A8" s="17" t="inlineStr">
         <is>
           <t>Buyer :</t>
         </is>
       </c>
-      <c r="B8" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">UNICAIR(HOLDINGS) LIMITED  </t>
-        </is>
-      </c>
-      <c r="D8" s="21" t="n"/>
-      <c r="E8" s="13" t="n"/>
-      <c r="G8" s="17" t="n"/>
-      <c r="H8" s="13" t="n"/>
-      <c r="J8" s="28" t="n"/>
+      <c r="B8" s="18" t="n"/>
+      <c r="D8" s="19" t="n"/>
+      <c r="E8" s="11" t="n"/>
+      <c r="G8" s="15" t="n"/>
+      <c r="H8" s="11" t="n"/>
+      <c r="J8" s="24" t="n"/>
     </row>
     <row r="9" ht="13" customFormat="1" customHeight="1" s="3">
-      <c r="A9" s="22" t="n"/>
-      <c r="B9" s="16" t="inlineStr">
-        <is>
-          <t>ADD:UNIT 802,8/F,CHINA INSURANCE GROUP BUILDING,141 DES VOEUX ROAD CENTRAL HONG KONG</t>
-        </is>
-      </c>
-      <c r="D9" s="16" t="n"/>
-      <c r="E9" s="13" t="n"/>
-      <c r="G9" s="13" t="n"/>
-      <c r="H9" s="13" t="n"/>
-      <c r="J9" s="28" t="n"/>
+      <c r="A9" s="20" t="n"/>
+      <c r="B9" s="14" t="n"/>
+      <c r="D9" s="14" t="n"/>
+      <c r="E9" s="11" t="n"/>
+      <c r="G9" s="11" t="n"/>
+      <c r="H9" s="11" t="n"/>
+      <c r="J9" s="24" t="n"/>
     </row>
     <row r="10" ht="13" customFormat="1" customHeight="1" s="3">
-      <c r="A10" s="22" t="n"/>
-      <c r="D10" s="16" t="n"/>
-      <c r="E10" s="13" t="n"/>
-      <c r="G10" s="15" t="n"/>
-      <c r="H10" s="15" t="n"/>
-      <c r="I10" s="21" t="n"/>
-      <c r="J10" s="28" t="n"/>
+      <c r="A10" s="20" t="n"/>
+      <c r="D10" s="14" t="n"/>
+      <c r="E10" s="11" t="n"/>
+      <c r="G10" s="13" t="n"/>
+      <c r="H10" s="13" t="n"/>
+      <c r="I10" s="19" t="n"/>
+      <c r="J10" s="24" t="n"/>
     </row>
     <row r="11" ht="13" customFormat="1" customHeight="1" s="3">
-      <c r="A11" s="19" t="n"/>
-      <c r="B11" s="23" t="n"/>
-      <c r="E11" s="13" t="n"/>
-      <c r="G11" s="15" t="n"/>
-      <c r="J11" s="28" t="n"/>
+      <c r="A11" s="17" t="n"/>
+      <c r="B11" s="21" t="n"/>
+      <c r="E11" s="11" t="n"/>
+      <c r="G11" s="13" t="n"/>
+      <c r="J11" s="24" t="n"/>
     </row>
     <row r="12" ht="13" customFormat="1" customHeight="1" s="3">
-      <c r="A12" s="19" t="inlineStr">
+      <c r="A12" s="17" t="inlineStr">
         <is>
           <t>Ship to :</t>
         </is>
       </c>
-      <c r="B12" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">UNICAIR(HOLDINGS) LIMITED  </t>
-        </is>
-      </c>
-      <c r="D12" s="21" t="n"/>
-      <c r="E12" s="13" t="n"/>
-      <c r="G12" s="15" t="n"/>
-      <c r="J12" s="28" t="n"/>
+      <c r="B12" s="18" t="n"/>
+      <c r="D12" s="19" t="n"/>
+      <c r="E12" s="11" t="n"/>
+      <c r="G12" s="13" t="n"/>
+      <c r="J12" s="24" t="n"/>
     </row>
     <row r="13" ht="13" customFormat="1" customHeight="1" s="3">
-      <c r="A13" s="22" t="n"/>
-      <c r="B13" s="24" t="inlineStr">
-        <is>
-          <t>ADD:UNIT 802,8/F,CHINA INSURANCE GROUP BUILDING,141 DES VOEUX ROAD CENTRAL HONG KONG</t>
-        </is>
-      </c>
-      <c r="D13" s="24" t="n"/>
-      <c r="E13" s="13" t="n"/>
-      <c r="G13" s="15" t="n"/>
-      <c r="J13" s="28" t="n"/>
+      <c r="A13" s="20" t="n"/>
+      <c r="B13" s="22" t="n"/>
+      <c r="D13" s="22" t="n"/>
+      <c r="E13" s="11" t="n"/>
+      <c r="G13" s="13" t="n"/>
+      <c r="J13" s="24" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/pl_h.xlsx
+++ b/pl_h.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="24750" windowHeight="12080" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>

--- a/pl_h.xlsx
+++ b/pl_h.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="24750" windowHeight="12080" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
